--- a/Fashion-MNIST/resultadosMobileNet/MobileNet-FP32_1/metricas_modelos_teste.xlsx
+++ b/Fashion-MNIST/resultadosMobileNet/MobileNet-FP32_1/metricas_modelos_teste.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8888</v>
+        <v>0.7118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8904367724386374</v>
+        <v>0.7096934524289338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8888</v>
+        <v>0.7118</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8892700472632505</v>
+        <v>0.7093024140266522</v>
       </c>
       <c r="F2" t="n">
-        <v>1.428764</v>
+        <v>1.462188</v>
       </c>
       <c r="G2" t="n">
-        <v>11739.638</v>
+        <v>11067.346</v>
       </c>
       <c r="H2" t="n">
-        <v>4.625616174250279e-06</v>
+        <v>5.434514060180623e-06</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8881</v>
+        <v>0.7178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8899954569678885</v>
+        <v>0.7155837238700232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8881</v>
+        <v>0.7177999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8887086868815771</v>
+        <v>0.71556578970565</v>
       </c>
       <c r="F3" t="n">
-        <v>1.419596</v>
+        <v>1.447246</v>
       </c>
       <c r="G3" t="n">
-        <v>11053.338</v>
+        <v>9949.804</v>
       </c>
       <c r="H3" t="n">
-        <v>4.588712902421098e-06</v>
+        <v>5.145752717700126e-06</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8889</v>
+        <v>0.7123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8905696130180181</v>
+        <v>0.7105464745383516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8888999999999999</v>
+        <v>0.7123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8894092782914044</v>
+        <v>0.7102414458259669</v>
       </c>
       <c r="F4" t="n">
-        <v>1.42444</v>
+        <v>1.432026</v>
       </c>
       <c r="G4" t="n">
-        <v>8876.361000000001</v>
+        <v>9230.221</v>
       </c>
       <c r="H4" t="n">
-        <v>4.460067142607309e-06</v>
+        <v>5.158243990095602e-06</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8889</v>
+        <v>0.7111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8905542094948234</v>
+        <v>0.7090370150368515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8888999999999999</v>
+        <v>0.7111000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8893827314892523</v>
+        <v>0.7088389238918662</v>
       </c>
       <c r="F5" t="n">
-        <v>1.446074</v>
+        <v>1.444287</v>
       </c>
       <c r="G5" t="n">
-        <v>8980.341</v>
+        <v>9814.687</v>
       </c>
       <c r="H5" t="n">
-        <v>4.465001118565503e-06</v>
+        <v>5.239180024275575e-06</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8885</v>
+        <v>0.7179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8902345456885458</v>
+        <v>0.7163035342789391</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8885000000000002</v>
+        <v>0.7179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8890684989789559</v>
+        <v>0.7157828225784536</v>
       </c>
       <c r="F6" t="n">
-        <v>1.456005</v>
+        <v>1.434233</v>
       </c>
       <c r="G6" t="n">
-        <v>9937.171</v>
+        <v>10255.948</v>
       </c>
       <c r="H6" t="n">
-        <v>4.511054149444356e-06</v>
+        <v>5.021138124579636e-06</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8869</v>
+        <v>0.7124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8894488116153607</v>
+        <v>0.7109507260382129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8869</v>
+        <v>0.7123999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8877378757336751</v>
+        <v>0.7104730980153445</v>
       </c>
       <c r="F7" t="n">
-        <v>1.437894</v>
+        <v>1.444627</v>
       </c>
       <c r="G7" t="n">
-        <v>9405.148999999999</v>
+        <v>10581.696</v>
       </c>
       <c r="H7" t="n">
-        <v>4.292950650106362e-06</v>
+        <v>4.297812279453087e-06</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8895999999999999</v>
+        <v>0.7081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8910867230320528</v>
+        <v>0.7065386256553873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8895999999999999</v>
+        <v>0.7081000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8900500233023549</v>
+        <v>0.706012072516774</v>
       </c>
       <c r="F8" t="n">
-        <v>1.450769</v>
+        <v>1.442962</v>
       </c>
       <c r="G8" t="n">
-        <v>10366.153</v>
+        <v>9525.511</v>
       </c>
       <c r="H8" t="n">
-        <v>4.440841030134912e-06</v>
+        <v>5.004916446659631e-06</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8869</v>
+        <v>0.7101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8886195760717592</v>
+        <v>0.7076469491843939</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8869</v>
+        <v>0.7101</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8874034417574963</v>
+        <v>0.7077768955304202</v>
       </c>
       <c r="F9" t="n">
-        <v>1.449259</v>
+        <v>1.430529</v>
       </c>
       <c r="G9" t="n">
-        <v>9463.172999999999</v>
+        <v>10238.55</v>
       </c>
       <c r="H9" t="n">
-        <v>4.405684813206276e-06</v>
+        <v>4.9573668970632e-06</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8899</v>
+        <v>0.7137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8913580014718369</v>
+        <v>0.7124319009649679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8899000000000001</v>
+        <v>0.7136999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8902766260465276</v>
+        <v>0.7117459937060512</v>
       </c>
       <c r="F10" t="n">
-        <v>1.453696</v>
+        <v>1.42031</v>
       </c>
       <c r="G10" t="n">
-        <v>11505.484</v>
+        <v>9142.926000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>4.500371818598479e-06</v>
+        <v>4.881715828959552e-06</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8885</v>
+        <v>0.7169</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8904010783882935</v>
+        <v>0.7152368371247875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8884999999999998</v>
+        <v>0.7169</v>
       </c>
       <c r="E11" t="n">
-        <v>0.889086114121367</v>
+        <v>0.7148027768187657</v>
       </c>
       <c r="F11" t="n">
-        <v>1.44777</v>
+        <v>1.444938</v>
       </c>
       <c r="G11" t="n">
-        <v>10567.249</v>
+        <v>9833.496999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>4.366691324654498e-06</v>
+        <v>4.845945130495204e-06</v>
       </c>
     </row>
   </sheetData>
